--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3746816.549401224</v>
+        <v>3744382.967364202</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90476.82312789223</v>
+        <v>90476.8231278923</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.25644938781221</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14.25644938781221</v>
+        <v>5.681034879073759</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.681034879073556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="C3" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.55708062078499</v>
+        <v>12.55708062078519</v>
       </c>
       <c r="E3" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.55708062078499</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="S4" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>14.25644938781221</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>12.55708062078519</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -911,49 +911,49 @@
         <v>14.2564493878129</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5.681034879074162</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>5.68103487907416</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,73 +975,73 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12.5570806207856</v>
+      </c>
+      <c r="S6" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="D6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="E6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>14.2564493878129</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.5570806207856</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,58 +1060,58 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="F7" t="n">
+      <c r="R7" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>12.5570806207856</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="V7" t="n">
-        <v>14.2564493878129</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.3925785030362</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4805298086153</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>131.4805298086153</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>95.5394264106807</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="W8" t="n">
-        <v>131.4805298086153</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>108.9320049137167</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>131.4805298086153</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>131.4805298086153</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>79.10542857918863</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.70262207623974</v>
+        <v>36.70262207623978</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>79.10542857918837</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.4805298086153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>101.3939675969318</v>
       </c>
       <c r="C10" t="n">
-        <v>131.4805298086153</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>131.4805298086153</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.4805298086153</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>83.02686276788397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32.7811878875444</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.41408305849633</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112672</v>
       </c>
       <c r="C11" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D11" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E11" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F11" t="n">
         <v>375.2658433894975</v>
@@ -1385,7 +1385,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H11" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T11" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V11" t="n">
         <v>296.142056117921</v>
@@ -1436,7 +1436,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D13" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E13" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F13" t="n">
         <v>113.8108456707173</v>
       </c>
       <c r="G13" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510276</v>
       </c>
       <c r="H13" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S13" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T13" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U13" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V13" t="n">
         <v>220.5274409716141</v>
@@ -1591,10 +1591,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X13" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C14" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D14" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E14" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F14" t="n">
         <v>375.2658433894975</v>
@@ -1622,7 +1622,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H14" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545726</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V14" t="n">
         <v>296.142056117921</v>
@@ -1673,7 +1673,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D16" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E16" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F16" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707167</v>
       </c>
       <c r="G16" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H16" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453042</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S16" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T16" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V16" t="n">
         <v>220.5274409716141</v>
@@ -1828,10 +1828,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X16" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651996</v>
       </c>
       <c r="X17" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2017,10 +2017,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442991</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2239,13 +2239,13 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464134</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659978</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2254,10 +2254,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2479,10 +2479,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2491,10 +2491,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.8790474529313</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S28" t="n">
         <v>183.8488525946973</v>
@@ -2767,7 +2767,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1933087134791</v>
+        <v>219.5538296862035</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>46.30814566459072</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>73.65767465442973</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T31" t="n">
         <v>218.097472392356</v>
       </c>
       <c r="U31" t="n">
-        <v>234.5357663220244</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3202,10 +3202,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442993</v>
+        <v>110.1245053442991</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943547</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221513</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3512,10 +3512,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295174</v>
+        <v>60.3201464229518</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943541</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612662</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3907,7 +3907,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707168</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4147,13 +4147,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510271</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.88692455439454</v>
+        <v>22.48647062731174</v>
       </c>
       <c r="C2" t="n">
-        <v>22.48647062731149</v>
+        <v>22.48647062731174</v>
       </c>
       <c r="D2" t="n">
-        <v>22.48647062731149</v>
+        <v>22.48647062731174</v>
       </c>
       <c r="E2" t="n">
-        <v>22.48647062731149</v>
+        <v>22.48647062731174</v>
       </c>
       <c r="F2" t="n">
-        <v>15.54096987810802</v>
+        <v>15.54096987810827</v>
       </c>
       <c r="G2" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="H2" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="I2" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="J2" t="n">
-        <v>15.25440084495907</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="K2" t="n">
-        <v>15.25440084495907</v>
+        <v>14.68414286944681</v>
       </c>
       <c r="L2" t="n">
-        <v>15.25440084495907</v>
+        <v>14.68414286944681</v>
       </c>
       <c r="M2" t="n">
-        <v>15.25440084495907</v>
+        <v>28.79802776338113</v>
       </c>
       <c r="N2" t="n">
-        <v>15.25440084495907</v>
+        <v>42.91191265731545</v>
       </c>
       <c r="O2" t="n">
-        <v>28.79802776338067</v>
+        <v>42.91191265731545</v>
       </c>
       <c r="P2" t="n">
-        <v>42.91191265731477</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="Q2" t="n">
-        <v>57.02579755124886</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="R2" t="n">
-        <v>42.62534362416581</v>
+        <v>51.28737848147829</v>
       </c>
       <c r="S2" t="n">
-        <v>42.62534362416581</v>
+        <v>51.28737848147829</v>
       </c>
       <c r="T2" t="n">
-        <v>42.62534362416581</v>
+        <v>36.88692455439502</v>
       </c>
       <c r="U2" t="n">
-        <v>42.62534362416581</v>
+        <v>22.48647062731174</v>
       </c>
       <c r="V2" t="n">
-        <v>42.62534362416581</v>
+        <v>22.48647062731174</v>
       </c>
       <c r="W2" t="n">
-        <v>42.62534362416581</v>
+        <v>22.48647062731174</v>
       </c>
       <c r="X2" t="n">
-        <v>42.62534362416581</v>
+        <v>22.48647062731174</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.88692455439454</v>
+        <v>22.48647062731174</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.62534362416581</v>
+        <v>13.82443576999994</v>
       </c>
       <c r="C3" t="n">
-        <v>28.22488969708276</v>
+        <v>13.82443576999994</v>
       </c>
       <c r="D3" t="n">
-        <v>15.54096987810802</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="E3" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="F3" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="G3" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="H3" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="I3" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="J3" t="n">
-        <v>15.25440084495907</v>
+        <v>14.68414286944681</v>
       </c>
       <c r="K3" t="n">
-        <v>15.25440084495907</v>
+        <v>28.79802776338113</v>
       </c>
       <c r="L3" t="n">
-        <v>29.36828573889316</v>
+        <v>28.79802776338113</v>
       </c>
       <c r="M3" t="n">
-        <v>43.48217063282725</v>
+        <v>42.91191265731545</v>
       </c>
       <c r="N3" t="n">
-        <v>57.02579755124886</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="O3" t="n">
-        <v>57.02579755124886</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="P3" t="n">
-        <v>57.02579755124886</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.02579755124886</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="R3" t="n">
-        <v>42.62534362416581</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="S3" t="n">
-        <v>42.62534362416581</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="T3" t="n">
-        <v>42.62534362416581</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="U3" t="n">
-        <v>42.62534362416581</v>
+        <v>42.62534362416649</v>
       </c>
       <c r="V3" t="n">
-        <v>42.62534362416581</v>
+        <v>42.62534362416649</v>
       </c>
       <c r="W3" t="n">
-        <v>42.62534362416581</v>
+        <v>42.62534362416649</v>
       </c>
       <c r="X3" t="n">
-        <v>42.62534362416581</v>
+        <v>42.62534362416649</v>
       </c>
       <c r="Y3" t="n">
-        <v>42.62534362416581</v>
+        <v>28.22488969708321</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.22488969708276</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="C4" t="n">
-        <v>28.22488969708276</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="D4" t="n">
-        <v>28.22488969708276</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="E4" t="n">
-        <v>15.54096987810802</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="F4" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="G4" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="H4" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="I4" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="J4" t="n">
-        <v>1.140515951024977</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="K4" t="n">
-        <v>1.140515951024977</v>
+        <v>15.25440084495931</v>
       </c>
       <c r="L4" t="n">
-        <v>1.140515951024977</v>
+        <v>15.25440084495931</v>
       </c>
       <c r="M4" t="n">
-        <v>15.25440084495907</v>
+        <v>28.79802776338113</v>
       </c>
       <c r="N4" t="n">
-        <v>29.36828573889316</v>
+        <v>42.91191265731545</v>
       </c>
       <c r="O4" t="n">
-        <v>43.48217063282725</v>
+        <v>42.91191265731545</v>
       </c>
       <c r="P4" t="n">
-        <v>57.02579755124886</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.02579755124886</v>
+        <v>57.02579755124977</v>
       </c>
       <c r="R4" t="n">
-        <v>57.02579755124886</v>
+        <v>42.62534362416649</v>
       </c>
       <c r="S4" t="n">
-        <v>42.62534362416581</v>
+        <v>42.62534362416649</v>
       </c>
       <c r="T4" t="n">
-        <v>28.22488969708276</v>
+        <v>28.22488969708321</v>
       </c>
       <c r="U4" t="n">
-        <v>28.22488969708276</v>
+        <v>28.22488969708321</v>
       </c>
       <c r="V4" t="n">
-        <v>28.22488969708276</v>
+        <v>28.22488969708321</v>
       </c>
       <c r="W4" t="n">
-        <v>28.22488969708276</v>
+        <v>13.82443576999994</v>
       </c>
       <c r="X4" t="n">
-        <v>28.22488969708276</v>
+        <v>1.140515951024995</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.22488969708276</v>
+        <v>1.140515951024995</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.88692455439597</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="C5" t="n">
-        <v>36.88692455439597</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="D5" t="n">
-        <v>36.88692455439597</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="E5" t="n">
-        <v>36.88692455439597</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="F5" t="n">
-        <v>29.9414238051925</v>
+        <v>21.27938894788065</v>
       </c>
       <c r="G5" t="n">
-        <v>15.54096987810877</v>
+        <v>6.878935020796913</v>
       </c>
       <c r="H5" t="n">
-        <v>15.54096987810877</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="I5" t="n">
         <v>1.140515951025032</v>
@@ -4568,19 +4568,19 @@
         <v>14.68414286944729</v>
       </c>
       <c r="K5" t="n">
-        <v>28.79802776338205</v>
+        <v>14.68414286944729</v>
       </c>
       <c r="L5" t="n">
-        <v>28.79802776338205</v>
+        <v>14.68414286944729</v>
       </c>
       <c r="M5" t="n">
         <v>28.79802776338205</v>
       </c>
       <c r="N5" t="n">
-        <v>28.79802776338205</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="O5" t="n">
-        <v>42.91191265731682</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="P5" t="n">
         <v>57.02579755125159</v>
@@ -4589,28 +4589,28 @@
         <v>57.02579755125159</v>
       </c>
       <c r="R5" t="n">
-        <v>42.62534362416785</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="S5" t="n">
-        <v>42.62534362416785</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="T5" t="n">
         <v>42.62534362416785</v>
       </c>
       <c r="U5" t="n">
-        <v>42.62534362416785</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="V5" t="n">
-        <v>36.88692455439597</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="W5" t="n">
-        <v>36.88692455439597</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="X5" t="n">
-        <v>36.88692455439597</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.88692455439597</v>
+        <v>28.22488969708412</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.02579755125159</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="C6" t="n">
-        <v>42.62534362416785</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="D6" t="n">
-        <v>28.22488969708412</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="E6" t="n">
-        <v>13.82443577000038</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="F6" t="n">
-        <v>13.82443577000038</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="G6" t="n">
-        <v>13.82443577000038</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="H6" t="n">
-        <v>13.82443577000038</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="I6" t="n">
         <v>1.140515951025032</v>
       </c>
       <c r="J6" t="n">
-        <v>15.2544008449598</v>
+        <v>14.68414286944729</v>
       </c>
       <c r="K6" t="n">
-        <v>15.2544008449598</v>
+        <v>28.79802776338206</v>
       </c>
       <c r="L6" t="n">
-        <v>29.36828573889456</v>
+        <v>28.79802776338206</v>
       </c>
       <c r="M6" t="n">
+        <v>28.79802776338206</v>
+      </c>
+      <c r="N6" t="n">
         <v>42.91191265731682</v>
       </c>
-      <c r="N6" t="n">
-        <v>57.02579755125159</v>
-      </c>
       <c r="O6" t="n">
-        <v>57.02579755125159</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="P6" t="n">
-        <v>57.02579755125159</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="Q6" t="n">
         <v>57.02579755125159</v>
       </c>
       <c r="R6" t="n">
-        <v>57.02579755125159</v>
+        <v>44.34187773227623</v>
       </c>
       <c r="S6" t="n">
-        <v>57.02579755125159</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="T6" t="n">
-        <v>57.02579755125159</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="U6" t="n">
-        <v>57.02579755125159</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="V6" t="n">
-        <v>57.02579755125159</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="W6" t="n">
-        <v>57.02579755125159</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="X6" t="n">
-        <v>57.02579755125159</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.02579755125159</v>
+        <v>1.140515951025032</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.9414238051925</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="C7" t="n">
-        <v>29.9414238051925</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="D7" t="n">
-        <v>29.9414238051925</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="E7" t="n">
-        <v>15.54096987810877</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="F7" t="n">
         <v>1.140515951025032</v>
@@ -4726,7 +4726,7 @@
         <v>1.140515951025032</v>
       </c>
       <c r="K7" t="n">
-        <v>1.140515951025032</v>
+        <v>15.2544008449598</v>
       </c>
       <c r="L7" t="n">
         <v>15.2544008449598</v>
@@ -4735,7 +4735,7 @@
         <v>28.79802776338205</v>
       </c>
       <c r="N7" t="n">
-        <v>28.79802776338205</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="O7" t="n">
         <v>42.91191265731682</v>
@@ -4744,31 +4744,31 @@
         <v>57.02579755125159</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.34187773227623</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="R7" t="n">
-        <v>44.34187773227623</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="S7" t="n">
-        <v>44.34187773227623</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="T7" t="n">
-        <v>44.34187773227623</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="U7" t="n">
-        <v>44.34187773227623</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="V7" t="n">
-        <v>29.9414238051925</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="W7" t="n">
-        <v>29.9414238051925</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="X7" t="n">
-        <v>29.9414238051925</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.9414238051925</v>
+        <v>1.140515951025032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.8004161759649</v>
+        <v>283.0811750704888</v>
       </c>
       <c r="C8" t="n">
-        <v>163.8004161759649</v>
+        <v>283.0811750704888</v>
       </c>
       <c r="D8" t="n">
-        <v>163.8004161759649</v>
+        <v>283.0811750704888</v>
       </c>
       <c r="E8" t="n">
-        <v>163.8004161759649</v>
+        <v>150.2725591021907</v>
       </c>
       <c r="F8" t="n">
-        <v>156.8549154267614</v>
+        <v>143.3270583529873</v>
       </c>
       <c r="G8" t="n">
-        <v>143.3270583529875</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="H8" t="n">
-        <v>143.3270583529875</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="I8" t="n">
-        <v>10.51844238468922</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="J8" t="n">
-        <v>10.51844238468922</v>
+        <v>90.0892195869979</v>
       </c>
       <c r="K8" t="n">
-        <v>33.17908539107545</v>
+        <v>112.749862593384</v>
       </c>
       <c r="L8" t="n">
-        <v>98.19337868956018</v>
+        <v>177.7641558918685</v>
       </c>
       <c r="M8" t="n">
-        <v>202.2037443414311</v>
+        <v>281.7745215437392</v>
       </c>
       <c r="N8" t="n">
-        <v>312.5109148278717</v>
+        <v>392.0816920301796</v>
       </c>
       <c r="O8" t="n">
-        <v>403.335586727675</v>
+        <v>482.9063639299827</v>
       </c>
       <c r="P8" t="n">
-        <v>446.3513420321527</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="Q8" t="n">
-        <v>525.9221192344612</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="R8" t="n">
-        <v>525.9221192344612</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="S8" t="n">
-        <v>525.9221192344612</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="T8" t="n">
-        <v>525.9221192344612</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="U8" t="n">
-        <v>393.1135032661629</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="V8" t="n">
-        <v>296.6090321442632</v>
+        <v>393.1135032661622</v>
       </c>
       <c r="W8" t="n">
-        <v>163.8004161759649</v>
+        <v>393.1135032661622</v>
       </c>
       <c r="X8" t="n">
-        <v>163.8004161759649</v>
+        <v>393.1135032661622</v>
       </c>
       <c r="Y8" t="n">
-        <v>163.8004161759649</v>
+        <v>283.0811750704888</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356.0401476335975</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="C9" t="n">
-        <v>223.2315316652993</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="D9" t="n">
-        <v>90.42291569700097</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="E9" t="n">
-        <v>10.51844238468922</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="F9" t="n">
-        <v>10.51844238468922</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="G9" t="n">
-        <v>10.51844238468922</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="H9" t="n">
-        <v>10.51844238468922</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="I9" t="n">
-        <v>10.51844238468922</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="J9" t="n">
-        <v>10.51844238468922</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="K9" t="n">
-        <v>37.43972393081507</v>
+        <v>37.43972393081499</v>
       </c>
       <c r="L9" t="n">
-        <v>119.9612504172283</v>
+        <v>119.961250417228</v>
       </c>
       <c r="M9" t="n">
-        <v>235.6168477101918</v>
+        <v>235.6168477101916</v>
       </c>
       <c r="N9" t="n">
-        <v>365.782572220721</v>
+        <v>365.7825722207204</v>
       </c>
       <c r="O9" t="n">
-        <v>465.3464199617189</v>
+        <v>465.3464199617181</v>
       </c>
       <c r="P9" t="n">
-        <v>525.9221192344612</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="Q9" t="n">
-        <v>525.9221192344612</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="R9" t="n">
-        <v>488.8487636018958</v>
+        <v>488.8487636018949</v>
       </c>
       <c r="S9" t="n">
-        <v>488.8487636018958</v>
+        <v>408.9442902895834</v>
       </c>
       <c r="T9" t="n">
-        <v>488.8487636018958</v>
+        <v>276.1356743212853</v>
       </c>
       <c r="U9" t="n">
-        <v>488.8487636018958</v>
+        <v>276.1356743212853</v>
       </c>
       <c r="V9" t="n">
-        <v>488.8487636018958</v>
+        <v>143.3270583529873</v>
       </c>
       <c r="W9" t="n">
-        <v>488.8487636018958</v>
+        <v>143.3270583529873</v>
       </c>
       <c r="X9" t="n">
-        <v>488.8487636018958</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="Y9" t="n">
-        <v>356.0401476335975</v>
+        <v>10.51844238468921</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>525.9221192344612</v>
+        <v>143.3270583529873</v>
       </c>
       <c r="C10" t="n">
-        <v>393.1135032661629</v>
+        <v>143.3270583529873</v>
       </c>
       <c r="D10" t="n">
-        <v>260.3048872978646</v>
+        <v>143.3270583529873</v>
       </c>
       <c r="E10" t="n">
-        <v>127.4962713295664</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="F10" t="n">
-        <v>127.4962713295664</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="G10" t="n">
-        <v>43.63075338220882</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="H10" t="n">
-        <v>43.63075338220882</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="I10" t="n">
-        <v>43.63075338220882</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="J10" t="n">
-        <v>10.51844238468922</v>
+        <v>10.51844238468921</v>
       </c>
       <c r="K10" t="n">
-        <v>10.51844238468922</v>
+        <v>87.02441303285502</v>
       </c>
       <c r="L10" t="n">
-        <v>140.6841668952184</v>
+        <v>217.1901375433839</v>
       </c>
       <c r="M10" t="n">
-        <v>270.8498914057475</v>
+        <v>265.5906702134025</v>
       </c>
       <c r="N10" t="n">
-        <v>401.0156159162766</v>
+        <v>395.7563947239314</v>
       </c>
       <c r="O10" t="n">
-        <v>426.0227603069562</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="P10" t="n">
-        <v>525.9221192344612</v>
+        <v>525.9221192344603</v>
       </c>
       <c r="Q10" t="n">
-        <v>525.9221192344612</v>
+        <v>511.3624393773933</v>
       </c>
       <c r="R10" t="n">
-        <v>525.9221192344612</v>
+        <v>511.3624393773933</v>
       </c>
       <c r="S10" t="n">
-        <v>525.9221192344612</v>
+        <v>511.3624393773933</v>
       </c>
       <c r="T10" t="n">
-        <v>525.9221192344612</v>
+        <v>378.5538234090952</v>
       </c>
       <c r="U10" t="n">
-        <v>525.9221192344612</v>
+        <v>245.7452074407972</v>
       </c>
       <c r="V10" t="n">
-        <v>525.9221192344612</v>
+        <v>245.7452074407972</v>
       </c>
       <c r="W10" t="n">
-        <v>525.9221192344612</v>
+        <v>245.7452074407972</v>
       </c>
       <c r="X10" t="n">
-        <v>525.9221192344612</v>
+        <v>245.7452074407972</v>
       </c>
       <c r="Y10" t="n">
-        <v>525.9221192344612</v>
+        <v>245.7452074407972</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G11" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H11" t="n">
         <v>84.98040897511625</v>
@@ -5039,10 +5039,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L11" t="n">
         <v>1336.032957050963</v>
@@ -5054,13 +5054,13 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P11" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R11" t="n">
         <v>4249.020448755812</v>
@@ -5072,19 +5072,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W11" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X11" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5124,22 @@
         <v>519.5985603334505</v>
       </c>
       <c r="L12" t="n">
-        <v>713.6174808275667</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M12" t="n">
-        <v>1262.535945437856</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="N12" t="n">
-        <v>1840.391293364258</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O12" t="n">
-        <v>2346.796248312508</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P12" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R12" t="n">
         <v>2555.644190323788</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H13" t="n">
         <v>140.0574709897932</v>
@@ -5206,7 +5206,7 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M13" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N13" t="n">
         <v>1709.719201354973</v>
@@ -5258,28 +5258,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D14" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E14" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G14" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5291,13 +5291,13 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R14" t="n">
         <v>4249.020448755812</v>
@@ -5306,22 +5306,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U14" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V14" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W14" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X14" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511625</v>
+        <v>259.8188512332393</v>
       </c>
       <c r="L15" t="n">
-        <v>538.7790385694437</v>
+        <v>713.6174808275667</v>
       </c>
       <c r="M15" t="n">
-        <v>1087.697503179733</v>
+        <v>1262.535945437856</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.552851106135</v>
+        <v>1840.391293364258</v>
       </c>
       <c r="O15" t="n">
-        <v>2171.957806054385</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F16" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0574709897934</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511625</v>
@@ -5443,7 +5443,7 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N16" t="n">
         <v>1709.719201354973</v>
@@ -5464,19 +5464,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U16" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y16" t="n">
         <v>1022.581387254981</v>
@@ -5501,16 +5501,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076836</v>
@@ -5531,25 +5531,25 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437414</v>
@@ -5586,16 +5586,16 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="L18" t="n">
         <v>301.7509472448909</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
@@ -5680,7 +5680,7 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L21" t="n">
-        <v>538.7790385694436</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M21" t="n">
-        <v>1087.697503179733</v>
+        <v>1390.738552529598</v>
       </c>
       <c r="N21" t="n">
-        <v>1665.552851106135</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O21" t="n">
-        <v>2171.957806054385</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,58 +5884,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127668</v>
@@ -5975,10 +5975,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5990,7 +5990,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050964</v>
@@ -6005,7 +6005,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
         <v>4142.907144767228</v>
@@ -6069,25 +6069,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694436</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M24" t="n">
-        <v>1087.697503179733</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N24" t="n">
-        <v>1665.552851106135</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
         <v>386.7245456315386</v>
@@ -6145,28 +6145,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902799</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
@@ -6181,10 +6181,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073043</v>
@@ -6212,49 +6212,49 @@
         <v>1221.906516046861</v>
       </c>
       <c r="F26" t="n">
-        <v>810.9206112572538</v>
+        <v>810.920611257254</v>
       </c>
       <c r="G26" t="n">
-        <v>396.6131300684015</v>
+        <v>396.6131300684014</v>
       </c>
       <c r="H26" t="n">
         <v>106.8637681017653</v>
       </c>
       <c r="I26" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J26" t="n">
-        <v>429.3974438407785</v>
+        <v>346.8712280413478</v>
       </c>
       <c r="K26" t="n">
-        <v>858.5873309282397</v>
+        <v>776.061115128809</v>
       </c>
       <c r="L26" t="n">
-        <v>1427.937099284058</v>
+        <v>1345.410883484627</v>
       </c>
       <c r="M26" t="n">
-        <v>2093.117855979833</v>
+        <v>2010.591640180402</v>
       </c>
       <c r="N26" t="n">
-        <v>2773.67574112285</v>
+        <v>2691.149525323419</v>
       </c>
       <c r="O26" t="n">
-        <v>3779.9641719165</v>
+        <v>3320.445776666951</v>
       </c>
       <c r="P26" t="n">
-        <v>4282.552962295916</v>
+        <v>4141.615288136135</v>
       </c>
       <c r="Q26" t="n">
-        <v>4611.803466450439</v>
+        <v>4546.744210776185</v>
       </c>
       <c r="R26" t="n">
-        <v>4717.916770439023</v>
+        <v>4717.916770439022</v>
       </c>
       <c r="S26" t="n">
-        <v>4625.05783228229</v>
+        <v>4625.057832282289</v>
       </c>
       <c r="T26" t="n">
-        <v>4422.428736315839</v>
+        <v>4422.428736315838</v>
       </c>
       <c r="U26" t="n">
         <v>4168.959457106967</v>
@@ -6291,28 +6291,28 @@
         <v>468.3110248703088</v>
       </c>
       <c r="F27" t="n">
-        <v>321.7764668971938</v>
+        <v>321.7764668971937</v>
       </c>
       <c r="G27" t="n">
-        <v>185.8226612101446</v>
+        <v>185.8226612101445</v>
       </c>
       <c r="H27" t="n">
-        <v>99.27368985543603</v>
+        <v>99.273689855436</v>
       </c>
       <c r="I27" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J27" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="K27" t="n">
-        <v>94.35833540878046</v>
+        <v>397.3993847586448</v>
       </c>
       <c r="L27" t="n">
-        <v>548.1569650031079</v>
+        <v>851.1980143529722</v>
       </c>
       <c r="M27" t="n">
-        <v>860.047338288845</v>
+        <v>1400.116478963261</v>
       </c>
       <c r="N27" t="n">
         <v>1437.902686215247</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.683949213479</v>
+        <v>411.834672703179</v>
       </c>
       <c r="C28" t="n">
-        <v>559.7477662855721</v>
+        <v>411.834672703179</v>
       </c>
       <c r="D28" t="n">
-        <v>409.6311268732363</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="E28" t="n">
         <v>261.7180332908432</v>
@@ -6373,19 +6373,19 @@
         <v>261.7180332908432</v>
       </c>
       <c r="G28" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="H28" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="I28" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J28" t="n">
         <v>163.2581048092509</v>
       </c>
       <c r="K28" t="n">
-        <v>406.3184278206419</v>
+        <v>406.3184278206418</v>
       </c>
       <c r="L28" t="n">
         <v>772.8783931378675</v>
@@ -6406,28 +6406,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R28" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S28" t="n">
-        <v>2102.84063968952</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T28" t="n">
-        <v>1882.540162525524</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U28" t="n">
-        <v>1593.456012309888</v>
+        <v>1586.366925817814</v>
       </c>
       <c r="V28" t="n">
-        <v>1338.771524104001</v>
+        <v>1331.682437611927</v>
       </c>
       <c r="W28" t="n">
-        <v>1049.354354067041</v>
+        <v>1042.265267574966</v>
       </c>
       <c r="X28" t="n">
-        <v>1049.354354067041</v>
+        <v>814.2757166769488</v>
       </c>
       <c r="Y28" t="n">
-        <v>828.5617749235106</v>
+        <v>593.4831375334187</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1221.906516046861</v>
       </c>
       <c r="F29" t="n">
-        <v>810.9206112572538</v>
+        <v>810.9206112572537</v>
       </c>
       <c r="G29" t="n">
-        <v>396.6131300684015</v>
+        <v>396.6131300684014</v>
       </c>
       <c r="H29" t="n">
         <v>106.8637681017652</v>
@@ -6470,19 +6470,19 @@
         <v>1345.410883484627</v>
       </c>
       <c r="M29" t="n">
-        <v>2405.050779755696</v>
+        <v>2259.918194676642</v>
       </c>
       <c r="N29" t="n">
-        <v>3085.608664898712</v>
+        <v>2940.476079819658</v>
       </c>
       <c r="O29" t="n">
-        <v>3714.904916242244</v>
+        <v>3569.772331163191</v>
       </c>
       <c r="P29" t="n">
-        <v>4217.49370662166</v>
+        <v>4072.361121542607</v>
       </c>
       <c r="Q29" t="n">
-        <v>4546.744210776184</v>
+        <v>4611.803466450437</v>
       </c>
       <c r="R29" t="n">
         <v>4717.91677043902</v>
@@ -6494,13 +6494,13 @@
         <v>4422.428736315836</v>
       </c>
       <c r="U29" t="n">
-        <v>4168.959457106965</v>
+        <v>4168.959457106966</v>
       </c>
       <c r="V29" t="n">
-        <v>3837.896569763394</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W29" t="n">
-        <v>3485.12791449328</v>
+        <v>3485.127914493281</v>
       </c>
       <c r="X29" t="n">
         <v>3111.662156232201</v>
@@ -6540,28 +6540,28 @@
         <v>94.35833540878041</v>
       </c>
       <c r="J30" t="n">
-        <v>94.35833540878041</v>
+        <v>225.9354374172501</v>
       </c>
       <c r="K30" t="n">
-        <v>397.3993847586448</v>
+        <v>406.2487086945176</v>
       </c>
       <c r="L30" t="n">
-        <v>544.7417937203553</v>
+        <v>860.047338288845</v>
       </c>
       <c r="M30" t="n">
-        <v>1093.660258330644</v>
+        <v>860.047338288845</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.515606257047</v>
+        <v>1437.902686215247</v>
       </c>
       <c r="O30" t="n">
-        <v>2177.920561205297</v>
+        <v>1944.307641163497</v>
       </c>
       <c r="P30" t="n">
-        <v>2565.022116757453</v>
+        <v>2331.409196715653</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.022116757453</v>
+        <v>2540.257138726933</v>
       </c>
       <c r="R30" t="n">
         <v>2565.022116757453</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1018.740268122009</v>
+        <v>526.1705324553626</v>
       </c>
       <c r="C31" t="n">
-        <v>849.8040851941023</v>
+        <v>526.1705324553626</v>
       </c>
       <c r="D31" t="n">
-        <v>699.6874457817665</v>
+        <v>376.0538930430268</v>
       </c>
       <c r="E31" t="n">
-        <v>551.7743521993734</v>
+        <v>228.1407994606337</v>
       </c>
       <c r="F31" t="n">
-        <v>404.884404701463</v>
+        <v>181.3648947489259</v>
       </c>
       <c r="G31" t="n">
-        <v>237.5247068194003</v>
+        <v>181.3648947489259</v>
       </c>
       <c r="H31" t="n">
-        <v>94.35833540878041</v>
+        <v>181.3648947489259</v>
       </c>
       <c r="I31" t="n">
         <v>94.35833540878041</v>
@@ -6646,25 +6646,25 @@
         <v>2214.144859831204</v>
       </c>
       <c r="S31" t="n">
-        <v>2214.144859831204</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T31" t="n">
-        <v>1993.844382667208</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U31" t="n">
-        <v>1756.939568200517</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V31" t="n">
-        <v>1756.939568200517</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W31" t="n">
-        <v>1467.522398163557</v>
+        <v>974.9526624969101</v>
       </c>
       <c r="X31" t="n">
-        <v>1239.532847265539</v>
+        <v>746.9631115988927</v>
       </c>
       <c r="Y31" t="n">
-        <v>1018.740268122009</v>
+        <v>526.1705324553626</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
         <v>337.493301607683</v>
@@ -6716,13 +6716,13 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
         <v>4188.091007924547</v>
@@ -6771,25 +6771,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O33" t="n">
         <v>1934.929714729833</v>
@@ -6844,16 +6844,16 @@
         <v>501.6849958039797</v>
       </c>
       <c r="F34" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042784</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694436</v>
+        <v>808.1559021931415</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.697503179733</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O36" t="n">
         <v>1934.929714729833</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E37" t="n">
         <v>501.6849958039802</v>
@@ -7084,13 +7084,13 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042784</v>
@@ -7117,10 +7117,10 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127668</v>
@@ -7160,10 +7160,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7172,16 +7172,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889755</v>
@@ -7254,16 +7254,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694436</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M39" t="n">
-        <v>1087.697503179733</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O39" t="n">
         <v>1934.929714729833</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502098</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
@@ -7330,52 +7330,52 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511622</v>
@@ -7424,10 +7424,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7439,7 +7439,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
         <v>3795.851627400162</v>
@@ -7491,25 +7491,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L42" t="n">
-        <v>535.3638672866908</v>
+        <v>510.5988892561712</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.28233189698</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F43" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
@@ -7567,13 +7567,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7588,7 +7588,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R43" t="n">
         <v>2487.049233352542</v>
@@ -7597,19 +7597,19 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,10 +7634,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,25 +7646,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7728,25 +7728,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694436</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.697503179733</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.552851106135</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O45" t="n">
-        <v>1959.694692760353</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.796248312508</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315374</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7807,10 +7807,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7831,25 +7831,25 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.9766990635892</v>
+        <v>110.7202496757768</v>
       </c>
       <c r="K2" t="n">
-        <v>114.6899244688442</v>
+        <v>128.3703556995731</v>
       </c>
       <c r="L2" t="n">
-        <v>105.0084859532434</v>
+        <v>105.008485953243</v>
       </c>
       <c r="M2" t="n">
-        <v>84.85284284049564</v>
+        <v>99.10929222830771</v>
       </c>
       <c r="N2" t="n">
-        <v>81.56543804469919</v>
+        <v>95.82188743251126</v>
       </c>
       <c r="O2" t="n">
-        <v>104.1703223088331</v>
+        <v>90.4898910781038</v>
       </c>
       <c r="P2" t="n">
-        <v>126.3369736824792</v>
+        <v>126.3369736824791</v>
       </c>
       <c r="Q2" t="n">
-        <v>147.0835954217795</v>
+        <v>132.827146033967</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.20859780424431</v>
+        <v>98.63257964716109</v>
       </c>
       <c r="K3" t="n">
-        <v>66.25248522388841</v>
+        <v>80.50893461170065</v>
       </c>
       <c r="L3" t="n">
-        <v>56.55064622456104</v>
+        <v>42.29419683674857</v>
       </c>
       <c r="M3" t="n">
-        <v>44.05939011471183</v>
+        <v>44.05939011471177</v>
       </c>
       <c r="N3" t="n">
-        <v>29.71798033366849</v>
+        <v>30.29399849075173</v>
       </c>
       <c r="O3" t="n">
-        <v>37.1154618140895</v>
+        <v>37.11546181408923</v>
       </c>
       <c r="P3" t="n">
-        <v>49.31678000340625</v>
+        <v>49.31678000340604</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.39039211699372</v>
+        <v>83.39039211699358</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>85.83108427871355</v>
+        <v>100.0875336665259</v>
       </c>
       <c r="L4" t="n">
-        <v>79.6263608018287</v>
+        <v>79.62636080182855</v>
       </c>
       <c r="M4" t="n">
-        <v>94.92008744991776</v>
+        <v>94.34406929283449</v>
       </c>
       <c r="N4" t="n">
-        <v>85.06519157440397</v>
+        <v>85.06519157440405</v>
       </c>
       <c r="O4" t="n">
-        <v>100.1780551581177</v>
+        <v>85.9216057703054</v>
       </c>
       <c r="P4" t="n">
-        <v>106.4557246807531</v>
+        <v>107.0317428378365</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,22 +8216,22 @@
         <v>105.9239388111072</v>
       </c>
       <c r="K5" t="n">
-        <v>101.2545270569381</v>
+        <v>86.99807766912519</v>
       </c>
       <c r="L5" t="n">
         <v>70.65430131759652</v>
       </c>
       <c r="M5" t="n">
-        <v>46.62719309061671</v>
+        <v>60.88364247842961</v>
       </c>
       <c r="N5" t="n">
-        <v>42.72125731818082</v>
+        <v>56.97770670599371</v>
       </c>
       <c r="O5" t="n">
         <v>68.06688209714918</v>
       </c>
       <c r="P5" t="n">
-        <v>95.03190457399765</v>
+        <v>80.77545518618476</v>
       </c>
       <c r="Q5" t="n">
         <v>109.3183428650893</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>88.20397679058036</v>
+        <v>87.62795863349702</v>
       </c>
       <c r="K6" t="n">
-        <v>47.44383512128914</v>
+        <v>61.70028450910203</v>
       </c>
       <c r="L6" t="n">
-        <v>31.26009503002721</v>
+        <v>17.00364564221431</v>
       </c>
       <c r="M6" t="n">
-        <v>13.97049159184273</v>
+        <v>0.2900603611131771</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>27.07458188386998</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.52207170560635</v>
+        <v>82.77852109341924</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,19 +8374,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>74.48578089249756</v>
+        <v>88.74223028031045</v>
       </c>
       <c r="L7" t="n">
-        <v>79.3647279065292</v>
+        <v>65.1082785187163</v>
       </c>
       <c r="M7" t="n">
         <v>79.03678711063459</v>
       </c>
       <c r="N7" t="n">
-        <v>55.86543296122603</v>
+        <v>70.12188234903893</v>
       </c>
       <c r="O7" t="n">
-        <v>86.37549044380806</v>
+        <v>72.11904105599517</v>
       </c>
       <c r="P7" t="n">
         <v>95.22126425800784</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.92354607356111</v>
+        <v>99.29806850013563</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>96.4045282832336</v>
+        <v>16.03000585665944</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.27866062132867</v>
+        <v>30.27866062132873</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.52115722591671</v>
+        <v>9.521157225916767</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>29.46500811418196</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>138.9777192806513</v>
+        <v>138.9777192806512</v>
       </c>
       <c r="M10" t="n">
-        <v>136.09406995953</v>
+        <v>53.50296709032752</v>
       </c>
       <c r="N10" t="n">
-        <v>128.0474754320176</v>
+        <v>128.0474754320174</v>
       </c>
       <c r="O10" t="n">
-        <v>42.60703206998537</v>
+        <v>148.8278200698332</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>34.098119952925</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>83.35981393881877</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>76.64486715709734</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>398.4435753285791</v>
+        <v>251.8450045416563</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2176967801641532</v>
+        <v>0.2176967801639236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.95293272900599</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>66.63947902727557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.11290235834053</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I31" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.65754239145474</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>4.689582056016661e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>665808.0306288935</v>
+        <v>665808.0306288934</v>
       </c>
     </row>
     <row r="4">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643760.8918936687</v>
+        <v>643760.8918936686</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800498.8301705677</v>
+        <v>800498.8301705678</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>800515.7256176751</v>
+        <v>800515.7256176753</v>
       </c>
       <c r="F2" t="n">
         <v>800515.725617675</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176749</v>
+        <v>800515.725617675</v>
       </c>
       <c r="H2" t="n">
         <v>800515.7256176751</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176749</v>
       </c>
       <c r="J2" t="n">
-        <v>782881.1928312918</v>
+        <v>782881.1928312917</v>
       </c>
       <c r="K2" t="n">
-        <v>782881.1928312915</v>
+        <v>782881.1928312916</v>
       </c>
       <c r="L2" t="n">
         <v>800515.725617675</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176746</v>
+        <v>800515.7256176745</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176746</v>
+        <v>800515.7256176749</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176748</v>
       </c>
       <c r="P2" t="n">
-        <v>800515.7256176746</v>
+        <v>800515.7256176752</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203389.9607983348</v>
+        <v>203389.9607983354</v>
       </c>
       <c r="C3" t="n">
-        <v>49310.98694834127</v>
+        <v>49310.9869483407</v>
       </c>
       <c r="D3" t="n">
-        <v>220446.3071800084</v>
+        <v>220446.307180008</v>
       </c>
       <c r="E3" t="n">
-        <v>948335.863827229</v>
+        <v>948335.8638272292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25288.16188177116</v>
+        <v>25288.16188177115</v>
       </c>
       <c r="M3" t="n">
-        <v>231952.7490275096</v>
+        <v>231952.7490275097</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371741.5233949927</v>
+        <v>371741.5233949926</v>
       </c>
       <c r="C4" t="n">
-        <v>359359.5572018074</v>
+        <v>359359.5572018073</v>
       </c>
       <c r="D4" t="n">
-        <v>296140.752402516</v>
+        <v>296140.7524025161</v>
       </c>
       <c r="E4" t="n">
+        <v>40349.81915099771</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40349.81915099768</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40349.81915099766</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40349.81915099769</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40349.8191509977</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22266.85223852028</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22266.85223852024</v>
+      </c>
+      <c r="L4" t="n">
         <v>40349.81915099772</v>
       </c>
-      <c r="F4" t="n">
+      <c r="M4" t="n">
+        <v>40349.81915099772</v>
+      </c>
+      <c r="N4" t="n">
         <v>40349.81915099773</v>
       </c>
-      <c r="G4" t="n">
-        <v>40349.81915099772</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40349.81915099774</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
+        <v>40349.81915099776</v>
+      </c>
+      <c r="P4" t="n">
         <v>40349.81915099773</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22266.85223852033</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22266.85223852025</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40349.81915099773</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40349.81915099773</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40349.81915099777</v>
-      </c>
-      <c r="O4" t="n">
-        <v>40349.81915099773</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40349.8191509977</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38987.63585058373</v>
+        <v>38987.63585058376</v>
       </c>
       <c r="C5" t="n">
         <v>40168.15106521523</v>
       </c>
       <c r="D5" t="n">
-        <v>51979.93099522287</v>
+        <v>51979.93099522285</v>
       </c>
       <c r="E5" t="n">
         <v>95106.4341021553</v>
@@ -26482,16 +26482,16 @@
         <v>95106.4341021553</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>99576.22009019183</v>
+        <v>99576.22009019181</v>
       </c>
       <c r="K5" t="n">
         <v>99576.22009019178</v>
@@ -26500,16 +26500,16 @@
         <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186379.7101266565</v>
+        <v>186379.6668049969</v>
       </c>
       <c r="C6" t="n">
-        <v>351677.0304023129</v>
+        <v>351677.0304023133</v>
       </c>
       <c r="D6" t="n">
-        <v>231948.7350399295</v>
+        <v>231948.7350399293</v>
       </c>
       <c r="E6" t="n">
-        <v>-283276.391462707</v>
+        <v>-283276.3914627069</v>
       </c>
       <c r="F6" t="n">
         <v>665059.4723645221</v>
       </c>
       <c r="G6" t="n">
-        <v>665059.4723645219</v>
+        <v>665059.4723645221</v>
       </c>
       <c r="H6" t="n">
-        <v>665059.4723645222</v>
+        <v>665059.4723645221</v>
       </c>
       <c r="I6" t="n">
-        <v>665059.4723645236</v>
+        <v>665059.4723645223</v>
       </c>
       <c r="J6" t="n">
-        <v>626637.0287613345</v>
+        <v>626591.8120105999</v>
       </c>
       <c r="K6" t="n">
-        <v>661038.1205025794</v>
+        <v>660992.9037518451</v>
       </c>
       <c r="L6" t="n">
         <v>639771.3104827509</v>
       </c>
       <c r="M6" t="n">
-        <v>433106.7233370121</v>
+        <v>433106.7233370119</v>
       </c>
       <c r="N6" t="n">
-        <v>665059.4723645215</v>
+        <v>665059.4723645218</v>
       </c>
       <c r="O6" t="n">
-        <v>665059.4723645232</v>
+        <v>665059.4723645217</v>
       </c>
       <c r="P6" t="n">
-        <v>665059.4723645217</v>
+        <v>665059.4723645223</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>31.61020235221395</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221399</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.1120976057224</v>
+        <v>206.1120976057229</v>
       </c>
       <c r="C3" t="n">
         <v>260.2641716713856</v>
       </c>
       <c r="D3" t="n">
-        <v>475.15205425959</v>
+        <v>475.1520542595898</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.25644938781221</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="C4" t="n">
         <v>14.2564493878129</v>
       </c>
       <c r="D4" t="n">
-        <v>131.4805298086153</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26820,7 +26820,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221394</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.1120976057224</v>
+        <v>206.1120976057229</v>
       </c>
       <c r="C3" t="n">
-        <v>54.15207406566321</v>
+        <v>54.15207406566267</v>
       </c>
       <c r="D3" t="n">
-        <v>214.8878825882044</v>
+        <v>214.8878825882041</v>
       </c>
       <c r="E3" t="n">
-        <v>803.007816360533</v>
+        <v>803.0078163605333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.25644938781221</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>117.2240804208024</v>
+        <v>117.2240804208022</v>
       </c>
       <c r="E4" t="n">
-        <v>930.7745823803377</v>
+        <v>930.774582380338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>930.7745823803375</v>
+        <v>930.774582380338</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.25644938781221</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>117.2240804208024</v>
+        <v>117.2240804208022</v>
       </c>
       <c r="M4" t="n">
-        <v>930.7745823803377</v>
+        <v>930.774582380338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>351.0164423831953</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27397,7 @@
         <v>330.9889909816783</v>
       </c>
       <c r="I2" t="n">
-        <v>178.5316216590708</v>
+        <v>178.5316216590707</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>83.56366734238085</v>
+        <v>92.13908185111916</v>
       </c>
       <c r="S2" t="n">
         <v>190.1385442628668</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4686909419442</v>
+        <v>205.2122415541318</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2793656000638</v>
+        <v>237.0229162122514</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.5569037769801</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>152.2767342620549</v>
       </c>
       <c r="C3" t="n">
-        <v>158.4520496005035</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>134.8879849438538</v>
+        <v>134.8879849438536</v>
       </c>
       <c r="E3" t="n">
-        <v>143.3886310675887</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>107.9537570768002</v>
       </c>
       <c r="I3" t="n">
-        <v>74.13267090608564</v>
+        <v>74.13267090608559</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.37569746571198</v>
+        <v>72.63214685352412</v>
       </c>
       <c r="S3" t="n">
         <v>163.4484094683639</v>
@@ -27512,7 +27512,7 @@
         <v>198.377775697655</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9122152747099</v>
+        <v>211.6557658868974</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>191.4262463894919</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>133.8768820257842</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>131.164598635119</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.6193018053993</v>
@@ -27558,7 +27558,7 @@
         <v>144.2731172407053</v>
       </c>
       <c r="J4" t="n">
-        <v>67.08157711536617</v>
+        <v>67.0815771153661</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.0391165132303</v>
+        <v>55.03911651323023</v>
       </c>
       <c r="R4" t="n">
-        <v>160.581417036876</v>
+        <v>146.3249676490635</v>
       </c>
       <c r="S4" t="n">
-        <v>203.2828225653868</v>
+        <v>217.539271953199</v>
       </c>
       <c r="T4" t="n">
-        <v>212.1010632228514</v>
+        <v>212.1010632228512</v>
       </c>
       <c r="U4" t="n">
         <v>286.2987560354149</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.2665489487786</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>213.152574768252</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>328.7595038318291</v>
+        <v>323.078468952755</v>
       </c>
       <c r="I5" t="n">
-        <v>155.8824171540057</v>
+        <v>170.1388665418186</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>69.88877197543657</v>
+        <v>84.14522136324946</v>
       </c>
       <c r="S5" t="n">
         <v>185.1777788848918</v>
       </c>
       <c r="T5" t="n">
-        <v>218.5157232867786</v>
+        <v>204.2592738989657</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2619498576507</v>
+        <v>237.0055004698378</v>
       </c>
       <c r="V5" t="n">
-        <v>322.0712235910607</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>158.4520496005028</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>133.1886161768259</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>143.3886310675881</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>106.8288243683796</v>
       </c>
       <c r="I6" t="n">
-        <v>57.56527159270139</v>
+        <v>70.12235221348699</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>65.40029062264185</v>
+        <v>52.84321000185625</v>
       </c>
       <c r="S6" t="n">
-        <v>161.2848808488537</v>
+        <v>147.0284314610408</v>
       </c>
       <c r="T6" t="n">
         <v>197.9082874328782</v>
@@ -27752,7 +27752,7 @@
         <v>225.9045522453609</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>218.5441377616124</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>191.4262463894915</v>
       </c>
     </row>
     <row r="7">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>132.1775132587563</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>131.1645986351184</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.5216505242973</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.30507270852956</v>
+        <v>32.60570394150226</v>
       </c>
       <c r="R7" t="n">
-        <v>156.1906603429617</v>
+        <v>141.9342109551488</v>
       </c>
       <c r="S7" t="n">
         <v>215.8374764452666</v>
       </c>
       <c r="T7" t="n">
-        <v>225.9402753186823</v>
+        <v>213.3831946978967</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2934296019002</v>
+        <v>272.0369802140874</v>
       </c>
       <c r="V7" t="n">
-        <v>237.8811939360151</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>250.4498402636467</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>281.9120486944211</v>
       </c>
       <c r="H8" t="n">
         <v>319.9123861331097</v>
       </c>
       <c r="I8" t="n">
-        <v>5.353954447849503</v>
+        <v>136.8344842564649</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.880091897395</v>
+        <v>29.88009189739508</v>
       </c>
       <c r="S8" t="n">
         <v>165.4923210980427</v>
@@ -27907,19 +27907,19 @@
         <v>214.7341284886686</v>
       </c>
       <c r="U8" t="n">
-        <v>119.7123103782533</v>
+        <v>251.1928401868686</v>
       </c>
       <c r="V8" t="n">
-        <v>232.2128320594542</v>
+        <v>196.2717286615198</v>
       </c>
       <c r="W8" t="n">
-        <v>217.7604389087977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>277.3059337423368</v>
       </c>
     </row>
     <row r="9">
@@ -27932,13 +27932,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>41.22796917970044</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>15.96453575602345</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>78.53965187621232</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>102.3648326942359</v>
       </c>
       <c r="I9" t="n">
-        <v>54.20848543690769</v>
+        <v>54.20848543690771</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6995017662023</v>
+        <v>73.59407318701396</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0452500357219</v>
+        <v>64.56472022710687</v>
       </c>
       <c r="U9" t="n">
         <v>225.8741435827305</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>101.3200573408102</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>74.2924553948624</v>
       </c>
       <c r="Y9" t="n">
-        <v>74.20216596868906</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>78.43801258500548</v>
       </c>
       <c r="C10" t="n">
-        <v>35.76629129001253</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>17.13494320959705</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>14.95343283795387</v>
+        <v>14.9534328379541</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>84.1072850173198</v>
+        <v>167.1341477852038</v>
       </c>
       <c r="H10" t="n">
         <v>154.6091608834088</v>
@@ -28032,7 +28032,7 @@
         <v>129.6832127060989</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>32.78118788754443</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.41408305849629</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>138.7671280924493</v>
@@ -28062,10 +28062,10 @@
         <v>209.0843605285193</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2845817971011</v>
+        <v>92.80405198848598</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2722930888588</v>
+        <v>154.7917632802437</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I11" t="n">
         <v>12.38037836605494</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I14" t="n">
         <v>12.38037836605494</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221366</v>
       </c>
       <c r="U14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221412</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221525</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8285913471586823</v>
+        <v>0.8285913471586845</v>
       </c>
       <c r="H2" t="n">
-        <v>8.485811134088857</v>
+        <v>8.48581113408888</v>
       </c>
       <c r="I2" t="n">
-        <v>31.94426791133513</v>
+        <v>31.94426791133522</v>
       </c>
       <c r="J2" t="n">
-        <v>70.32565485090929</v>
+        <v>70.32565485090947</v>
       </c>
       <c r="K2" t="n">
-        <v>105.3999265761363</v>
+        <v>105.3999265761366</v>
       </c>
       <c r="L2" t="n">
-        <v>130.7579290167439</v>
+        <v>130.7579290167442</v>
       </c>
       <c r="M2" t="n">
-        <v>145.4933903867771</v>
+        <v>145.4933903867775</v>
       </c>
       <c r="N2" t="n">
-        <v>147.8476255518917</v>
+        <v>147.8476255518921</v>
       </c>
       <c r="O2" t="n">
-        <v>139.6083203435826</v>
+        <v>139.6083203435829</v>
       </c>
       <c r="P2" t="n">
-        <v>119.1524714606026</v>
+        <v>119.1524714606029</v>
       </c>
       <c r="Q2" t="n">
-        <v>89.47854384048222</v>
+        <v>89.47854384048246</v>
       </c>
       <c r="R2" t="n">
-        <v>52.04900121095663</v>
+        <v>52.04900121095677</v>
       </c>
       <c r="S2" t="n">
-        <v>18.88152532337849</v>
+        <v>18.88152532337854</v>
       </c>
       <c r="T2" t="n">
-        <v>3.627158622187134</v>
+        <v>3.627158622187143</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06628730777269458</v>
+        <v>0.06628730777269475</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4433354552274029</v>
+        <v>0.4433354552274041</v>
       </c>
       <c r="H3" t="n">
-        <v>4.281687159696234</v>
+        <v>4.281687159696245</v>
       </c>
       <c r="I3" t="n">
-        <v>15.26396194532944</v>
+        <v>15.26396194532948</v>
       </c>
       <c r="J3" t="n">
-        <v>41.88547825023459</v>
+        <v>41.8854782502347</v>
       </c>
       <c r="K3" t="n">
-        <v>71.58895375047058</v>
+        <v>71.58895375047078</v>
       </c>
       <c r="L3" t="n">
-        <v>96.26018294312536</v>
+        <v>96.26018294312561</v>
       </c>
       <c r="M3" t="n">
-        <v>112.3310931951187</v>
+        <v>112.331093195119</v>
       </c>
       <c r="N3" t="n">
-        <v>115.3041629803937</v>
+        <v>115.304162980394</v>
       </c>
       <c r="O3" t="n">
-        <v>105.4807826303549</v>
+        <v>105.4807826303552</v>
       </c>
       <c r="P3" t="n">
-        <v>84.65762741092399</v>
+        <v>84.65762741092421</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.59138196902779</v>
+        <v>56.59138196902794</v>
       </c>
       <c r="R3" t="n">
-        <v>27.52568729911894</v>
+        <v>27.52568729911901</v>
       </c>
       <c r="S3" t="n">
-        <v>8.234761635473903</v>
+        <v>8.234761635473925</v>
       </c>
       <c r="T3" t="n">
-        <v>1.786952997166593</v>
+        <v>1.786952997166597</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02916680626496073</v>
+        <v>0.02916680626496081</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3716775530594993</v>
+        <v>0.3716775530595003</v>
       </c>
       <c r="H4" t="n">
-        <v>3.304551335383551</v>
+        <v>3.30455133538356</v>
       </c>
       <c r="I4" t="n">
-        <v>11.17735768655295</v>
+        <v>11.17735768655298</v>
       </c>
       <c r="J4" t="n">
-        <v>26.2776030013066</v>
+        <v>26.27760300130667</v>
       </c>
       <c r="K4" t="n">
-        <v>43.18217389182183</v>
+        <v>43.18217389182194</v>
       </c>
       <c r="L4" t="n">
-        <v>55.25831547940958</v>
+        <v>55.25831547940972</v>
       </c>
       <c r="M4" t="n">
-        <v>58.26214588549951</v>
+        <v>58.26214588549967</v>
       </c>
       <c r="N4" t="n">
-        <v>56.87680227864143</v>
+        <v>56.87680227864158</v>
       </c>
       <c r="O4" t="n">
-        <v>52.53493268153726</v>
+        <v>52.53493268153739</v>
       </c>
       <c r="P4" t="n">
-        <v>44.95271059912344</v>
+        <v>44.95271059912355</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.12292673846408</v>
+        <v>31.12292673846416</v>
       </c>
       <c r="R4" t="n">
-        <v>16.71197434029348</v>
+        <v>16.71197434029353</v>
       </c>
       <c r="S4" t="n">
-        <v>6.477326083773273</v>
+        <v>6.47732608377329</v>
       </c>
       <c r="T4" t="n">
-        <v>1.588076817617861</v>
+        <v>1.588076817617865</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02027332107597271</v>
+        <v>0.02027332107597277</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.910159012098853</v>
+        <v>1.910159012098852</v>
       </c>
       <c r="H8" t="n">
-        <v>19.56241598265738</v>
+        <v>19.56241598265737</v>
       </c>
       <c r="I8" t="n">
-        <v>73.64140531394111</v>
+        <v>73.64140531394106</v>
       </c>
       <c r="J8" t="n">
-        <v>162.1223584531252</v>
+        <v>162.1223584531251</v>
       </c>
       <c r="K8" t="n">
-        <v>242.9793894352697</v>
+        <v>242.9793894352695</v>
       </c>
       <c r="L8" t="n">
-        <v>301.43741830179</v>
+        <v>301.4374183017898</v>
       </c>
       <c r="M8" t="n">
-        <v>335.407208633203</v>
+        <v>335.4072086332027</v>
       </c>
       <c r="N8" t="n">
-        <v>340.8344479263288</v>
+        <v>340.8344479263287</v>
       </c>
       <c r="O8" t="n">
-        <v>321.8403042497709</v>
+        <v>321.8403042497707</v>
       </c>
       <c r="P8" t="n">
-        <v>274.6832536385804</v>
+        <v>274.6832536385803</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.2756840177902</v>
+        <v>206.27568401779</v>
       </c>
       <c r="R8" t="n">
-        <v>119.9890260437547</v>
+        <v>119.9890260437546</v>
       </c>
       <c r="S8" t="n">
-        <v>43.52774848820265</v>
+        <v>43.52774848820263</v>
       </c>
       <c r="T8" t="n">
-        <v>8.361721075462734</v>
+        <v>8.361721075462729</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1528127209679082</v>
+        <v>0.1528127209679081</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.022025173313081</v>
+        <v>1.02202517331308</v>
       </c>
       <c r="H9" t="n">
-        <v>9.870611542260542</v>
+        <v>9.870611542260537</v>
       </c>
       <c r="I9" t="n">
-        <v>35.18814741450738</v>
+        <v>35.18814741450736</v>
       </c>
       <c r="J9" t="n">
-        <v>96.55896604533802</v>
+        <v>96.55896604533797</v>
       </c>
       <c r="K9" t="n">
-        <v>165.0346526573144</v>
+        <v>165.0346526573143</v>
       </c>
       <c r="L9" t="n">
-        <v>221.9094570388774</v>
+        <v>221.9094570388773</v>
       </c>
       <c r="M9" t="n">
-        <v>258.9578695714765</v>
+        <v>258.9578695714764</v>
       </c>
       <c r="N9" t="n">
-        <v>262.8222418919486</v>
+        <v>262.8222418919484</v>
       </c>
       <c r="O9" t="n">
-        <v>243.1657876171696</v>
+        <v>243.1657876171695</v>
       </c>
       <c r="P9" t="n">
-        <v>195.1619824373022</v>
+        <v>195.1619824373021</v>
       </c>
       <c r="Q9" t="n">
         <v>130.4606168601048</v>
       </c>
       <c r="R9" t="n">
-        <v>63.45521207640339</v>
+        <v>63.45521207640336</v>
       </c>
       <c r="S9" t="n">
-        <v>18.9836693376355</v>
+        <v>18.98366933763548</v>
       </c>
       <c r="T9" t="n">
-        <v>4.119478659099652</v>
+        <v>4.119478659099649</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06723849824428164</v>
+        <v>0.0672384982442816</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8568315732549984</v>
+        <v>0.8568315732549978</v>
       </c>
       <c r="H10" t="n">
-        <v>7.618011624030809</v>
+        <v>7.618011624030805</v>
       </c>
       <c r="I10" t="n">
-        <v>25.76726222115941</v>
+        <v>25.7672622211594</v>
       </c>
       <c r="J10" t="n">
-        <v>60.57799222912838</v>
+        <v>60.57799222912834</v>
       </c>
       <c r="K10" t="n">
-        <v>99.54825005635342</v>
+        <v>99.54825005635337</v>
       </c>
       <c r="L10" t="n">
         <v>127.3874868092022</v>
       </c>
       <c r="M10" t="n">
-        <v>134.3122437966903</v>
+        <v>134.3122437966902</v>
       </c>
       <c r="N10" t="n">
-        <v>131.1185988418309</v>
+        <v>131.1185988418308</v>
       </c>
       <c r="O10" t="n">
         <v>121.1092481906247</v>
       </c>
       <c r="P10" t="n">
-        <v>103.6298840962227</v>
+        <v>103.6298840962226</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.7479601931981</v>
+        <v>71.74796019319805</v>
       </c>
       <c r="R10" t="n">
-        <v>38.52626328472019</v>
+        <v>38.52626328472017</v>
       </c>
       <c r="S10" t="n">
-        <v>14.93223750845301</v>
+        <v>14.932237508453</v>
       </c>
       <c r="T10" t="n">
-        <v>3.661007631180447</v>
+        <v>3.661007631180444</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04673626763209087</v>
+        <v>0.04673626763209084</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,25 +31844,25 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L12" t="n">
-        <v>334.5330873496886</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M12" t="n">
-        <v>696.597129487967</v>
+        <v>601.8588519561642</v>
       </c>
       <c r="N12" t="n">
-        <v>715.033982716063</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q12" t="n">
         <v>350.9392912691327</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S12" t="n">
         <v>51.06610426486998</v>
@@ -32075,10 +32075,10 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>181.5397624588573</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155585</v>
@@ -32093,10 +32093,10 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P15" t="n">
-        <v>521.5364117268584</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463132</v>
+        <v>224.6083558013943</v>
       </c>
       <c r="M18" t="n">
         <v>696.597129487967</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>681.0297547098331</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>521.5364117268584</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,40 +32625,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155584</v>
@@ -32798,10 +32798,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>169.5095981964501</v>
       </c>
       <c r="O24" t="n">
-        <v>439.7092158123408</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
         <v>524.986079689235</v>
@@ -32810,7 +32810,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>457.1748150187225</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>169.5095981964506</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
@@ -33260,16 +33260,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.943509024727</v>
+        <v>319.9760564261444</v>
       </c>
       <c r="L30" t="n">
-        <v>287.3850959028141</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
@@ -33281,10 +33281,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33500,19 +33500,19 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879669</v>
+        <v>529.6867378368194</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>524.986079689235</v>
@@ -33734,22 +33734,22 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155584</v>
+        <v>430.0264422644108</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>475.6116682468181</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>662.5929014817382</v>
       </c>
       <c r="N39" t="n">
-        <v>475.6116682468181</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>524.986079689235</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>593.4871659531818</v>
+        <v>262.3699665790566</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155584</v>
@@ -34457,19 +34457,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>380.4671153795611</v>
       </c>
       <c r="O45" t="n">
-        <v>439.7092158123408</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>13.68043123072911</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="O2" t="n">
-        <v>13.68043123072889</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>14.25644938781221</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14.25644938781221</v>
+        <v>13.68043123072911</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="L3" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.25644938781221</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="N3" t="n">
-        <v>13.6804312307289</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.25644938781221</v>
+        <v>13.68043123072911</v>
       </c>
       <c r="N4" t="n">
-        <v>14.25644938781221</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="O4" t="n">
-        <v>14.25644938781221</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13.6804312307289</v>
+        <v>14.25644938781244</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>13.68043123072955</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="O5" t="n">
         <v>14.2564493878129</v>
       </c>
       <c r="P5" t="n">
-        <v>14.2564493878129</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>13.68043123072955</v>
+      </c>
+      <c r="K6" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>14.2564493878129</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>13.68043123072955</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>14.25644938781289</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="L7" t="n">
-        <v>14.2564493878129</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>13.68043123072955</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="O7" t="n">
-        <v>14.2564493878129</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>14.2564493878129</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>80.37452242657443</v>
       </c>
       <c r="K8" t="n">
-        <v>22.88953839028912</v>
+        <v>22.88953839028898</v>
       </c>
       <c r="L8" t="n">
-        <v>65.67100333180275</v>
+        <v>65.67100333180258</v>
       </c>
       <c r="M8" t="n">
-        <v>105.0609754059302</v>
+        <v>105.06097540593</v>
       </c>
       <c r="N8" t="n">
-        <v>111.4213843297379</v>
+        <v>111.4213843297377</v>
       </c>
       <c r="O8" t="n">
-        <v>91.74209282808417</v>
+        <v>91.74209282808394</v>
       </c>
       <c r="P8" t="n">
-        <v>43.45025788331083</v>
+        <v>43.45025788331071</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.37452242657427</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.19321368295542</v>
+        <v>27.19321368295533</v>
       </c>
       <c r="L9" t="n">
-        <v>83.35507725900325</v>
+        <v>83.35507725900311</v>
       </c>
       <c r="M9" t="n">
-        <v>116.8238356494582</v>
+        <v>116.8238356494581</v>
       </c>
       <c r="N9" t="n">
-        <v>131.4805298086153</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="O9" t="n">
-        <v>100.5695431727252</v>
+        <v>100.569543172725</v>
       </c>
       <c r="P9" t="n">
-        <v>61.18757502297197</v>
+        <v>61.18757502297186</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>77.27875823047052</v>
       </c>
       <c r="L10" t="n">
-        <v>131.4805298086153</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="M10" t="n">
-        <v>131.4805298086153</v>
+        <v>48.88942693941271</v>
       </c>
       <c r="N10" t="n">
-        <v>131.4805298086153</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="O10" t="n">
-        <v>25.2597418087673</v>
+        <v>131.4805298086151</v>
       </c>
       <c r="P10" t="n">
-        <v>100.9084433611162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R11" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L12" t="n">
-        <v>195.9787075698144</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>459.724818034146</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327297</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q12" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M13" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N13" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O13" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P13" t="n">
         <v>307.6533340553059</v>
@@ -35668,7 +35668,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>43.69832348449828</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356843</v>
@@ -35741,10 +35741,10 @@
         <v>511.520156513384</v>
       </c>
       <c r="P15" t="n">
-        <v>387.5620043125282</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M16" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N16" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O16" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P16" t="n">
         <v>307.6533340553059</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>218.960139666439</v>
+        <v>86.0539760215201</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
@@ -36048,13 +36048,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440247</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>549.6880426264999</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>387.5620043125282</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356842</v>
@@ -36446,10 +36446,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>38.16788611311679</v>
       </c>
       <c r="O24" t="n">
-        <v>297.1129713678964</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749048</v>
@@ -36458,7 +36458,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817362</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36531,7 +36531,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>338.423341850503</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
         <v>433.5251384721831</v>
@@ -36607,16 +36607,16 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>1016.452960397626</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.665444827693</v>
+        <v>829.4641529991757</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227516</v>
+        <v>409.2211339798489</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>315.0407810967042</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>38.16788611311724</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
@@ -36838,7 +36838,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>1070.343329566736</v>
+        <v>923.7447587798132</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
@@ -36850,10 +36850,10 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227516</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R29" t="n">
-        <v>172.9015754170063</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>306.102070050368</v>
+        <v>182.1346174517854</v>
       </c>
       <c r="L30" t="n">
-        <v>148.8307161229399</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
@@ -36929,10 +36929,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>387.552703914801</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749048</v>
@@ -37230,7 +37230,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356842</v>
+        <v>291.4720624845367</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>344.2699561634848</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
@@ -37467,7 +37467,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
@@ -37552,7 +37552,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151681</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O38" t="n">
         <v>635.6527791348809</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>520.4588675597198</v>
       </c>
       <c r="N39" t="n">
-        <v>344.2699561634848</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>391.0116722749048</v>
@@ -37701,19 +37701,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37792,13 +37792,13 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348821</v>
       </c>
       <c r="P41" t="n">
         <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>454.9327861733077</v>
+        <v>123.8155867991825</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356842</v>
@@ -38105,19 +38105,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>249.1254032962278</v>
       </c>
       <c r="O45" t="n">
-        <v>297.1129713678964</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
